--- a/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,13</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,88</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,99%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,87; 18,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,45; 17,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,36; 20,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 10,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,34; 29,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,64; 25,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 32,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,56; 19,23</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,82%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,68%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,98; 3,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,49; 13,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,6; 9,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 10,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,32; 5,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,72; 23,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,71; 12,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 18,3</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,31; 7,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 10,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 8,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 17,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,43; 11,53</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 15,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,01; 10,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,34; 32,46</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,1%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,4; 8,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,95; 8,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,05; 3,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,09; 3,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 12,86</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,3; 13,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 3,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,25; 5,96</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,1%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 4,75</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,52; 11,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,81; 4,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,36; 3,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,56; 7,06</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,71; 15,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,17; 6,25</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,69; 5,09</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,32%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,48; 4,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,12; 8,67</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 4,74</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 4,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,68; 5,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,89; 12,86</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,28; 5,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,91; 8,13</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,46</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,12</t>
+          <t>7,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,88</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>9,17%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>6,71%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,99%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 18,27</t>
+          <t>-4,08; 4,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,45; 17,62</t>
+          <t>2,45; 12,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 20,45</t>
+          <t>1,6; 9,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 10,69</t>
+          <t>-1,84; 9,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,34; 29,85</t>
+          <t>-5,18; 6,63</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 25,83</t>
+          <t>3,88; 20,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 32,05</t>
+          <t>1,91; 12,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-21,56; 19,23</t>
+          <t>-2,71; 17,31</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,73</t>
+          <t>5,02</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,98</t>
+          <t>16,42</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>5,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>12,8%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,68%</t>
+          <t>31,95%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 3,76</t>
+          <t>-0,31; 7,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,49; 13,86</t>
+          <t>1,69; 10,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 9,48</t>
+          <t>1,68; 8,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 10,35</t>
+          <t>1,4; 42,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-7,32; 5,02</t>
+          <t>-0,43; 11,53</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,72; 23,32</t>
+          <t>2,37; 15,61</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,71; 12,02</t>
+          <t>2,01; 10,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 18,3</t>
+          <t>2,01; 154,28</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>2,81</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,0</t>
+          <t>3,95</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,02</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,06</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>-0,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,68%</t>
+          <t>-5,75%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 7,94</t>
+          <t>-2,4; 8,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 10,43</t>
+          <t>-0,95; 8,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,24</t>
+          <t>-4,05; 3,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 17,33</t>
+          <t>-13,43; 2,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 11,53</t>
+          <t>-3,56; 12,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,37; 15,61</t>
+          <t>-1,3; 13,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,01; 10,42</t>
+          <t>-4,59; 3,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 32,46</t>
+          <t>-19,45; 3,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,81</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,3</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>-3,81</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>9,89%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,34%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-3,1%</t>
+          <t>-6,16%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,05</t>
+          <t>-3,32; 4,75</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,9</t>
+          <t>3,52; 11,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,19</t>
+          <t>-1,81; 4,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 3,88</t>
+          <t>-17,92; 2,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 12,86</t>
+          <t>-4,56; 7,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 13,96</t>
+          <t>4,71; 15,59</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 3,75</t>
+          <t>-2,17; 6,25</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 5,96</t>
+          <t>-28,07; 3,59</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>6,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>4,01</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,1%</t>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,75</t>
+          <t>-0,48; 4,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,52; 11,11</t>
+          <t>4,12; 8,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,92</t>
+          <t>1,06; 4,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 3,17</t>
+          <t>-2,13; 16,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 7,06</t>
+          <t>-0,68; 5,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,71; 15,59</t>
+          <t>5,89; 12,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,25</t>
+          <t>1,28; 5,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-9,69; 5,09</t>
+          <t>-3,28; 33,53</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>1,86</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>6,42</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,88</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,47</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>2,65%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>9,32%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>3,52%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2,32%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-0,48; 4,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>4,12; 8,67</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 4,74</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 4,97</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-0,68; 5,77</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>5,89; 12,86</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 5,88</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-1,91; 8,13</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P57GLOBAL_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,94</t>
+          <t>-3,88; 4,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 12,63</t>
+          <t>2,54; 12,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,6; 9,73</t>
+          <t>1,26; 9,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 9,52</t>
+          <t>-1,95; 9,52</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 6,63</t>
+          <t>-4,93; 6,45</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,88; 20,63</t>
+          <t>3,81; 20,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,91; 12,66</t>
+          <t>1,58; 12,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 17,31</t>
+          <t>-3,05; 17,26</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 7,94</t>
+          <t>-0,23; 8,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 10,43</t>
+          <t>1,59; 10,29</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 8,24</t>
+          <t>1,82; 8,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,4; 42,58</t>
+          <t>0,97; 38,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 11,53</t>
+          <t>-0,32; 11,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,37; 15,61</t>
+          <t>2,25; 15,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 10,42</t>
+          <t>2,19; 10,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,01; 154,28</t>
+          <t>1,5; 133,58</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,05</t>
+          <t>-2,35; 8,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 8,9</t>
+          <t>-0,64; 9,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 3,19</t>
+          <t>-3,93; 3,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 2,4</t>
+          <t>-13,61; 1,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 12,86</t>
+          <t>-3,49; 12,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 13,96</t>
+          <t>-0,96; 14,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 3,75</t>
+          <t>-4,45; 3,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,45; 3,8</t>
+          <t>-20,11; 2,82</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 4,75</t>
+          <t>-3,26; 4,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 11,11</t>
+          <t>3,85; 11,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 4,92</t>
+          <t>-1,96; 5,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-17,92; 2,19</t>
+          <t>-15,18; 2,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 7,06</t>
+          <t>-4,58; 6,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,71; 15,59</t>
+          <t>4,99; 15,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,25</t>
+          <t>-2,37; 6,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-28,07; 3,59</t>
+          <t>-24,58; 3,33</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 4,0</t>
+          <t>-0,28; 4,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 8,67</t>
+          <t>4,08; 8,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 4,74</t>
+          <t>0,79; 4,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 16,14</t>
+          <t>-1,82; 17,97</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 5,77</t>
+          <t>-0,38; 5,87</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,89; 12,86</t>
+          <t>5,85; 12,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 5,88</t>
+          <t>0,98; 5,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 33,53</t>
+          <t>-2,89; 39,57</t>
         </is>
       </c>
     </row>
